--- a/df_list_20250113.xlsx
+++ b/df_list_20250113.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="157">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -307,16 +307,197 @@
   </si>
   <si>
     <t>「안계정수장 급속응집침전지 설치공사」 공법선정위원회 평...</t>
+  </si>
+  <si>
+    <t>A166</t>
+  </si>
+  <si>
+    <t>경상도_영천시</t>
+  </si>
+  <si>
+    <t>https://www.yc.go.kr/portal/saeol/gosi/list.do?mId=0301040000</t>
+  </si>
+  <si>
+    <t>영천시 건축위원회(건축구조분야 전문위원회) 심의 결과 공고</t>
+  </si>
+  <si>
+    <t>영천 금호이웃사촌마을 조성사업 복합커뮤니티타운 신축공사 설계제안공모 심사결과 공고</t>
+  </si>
+  <si>
+    <t>A177</t>
+  </si>
+  <si>
+    <t>경상도_청도군</t>
+  </si>
+  <si>
+    <t>https://www.cheongdo.go.kr/portal/saeol/gosi/list.do?mid=0301020000&amp;token=1703813401840</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자)모집 공고『덕촌리(리도202호선)도로개설공사 외 2개소 실시설계용역 신기술·특허공법』특허공법 선정</t>
+  </si>
+  <si>
+    <t>『덕촌리(리도202호선) 도로개설공사 외 2개소 실시설계용역 중 송서-덕양간 도로개설공사』신기술·특허공법 선정 기술제안서 공법선정 기술제안서 제출</t>
+  </si>
+  <si>
+    <t>『덕촌리(리도202호선)도로개설공사 외 2개소 실시설계용역 중 덕촌리(리도202호선)도로개설공사』신기술·특허공법 선정 기술제안서 공법선정 기술제안서 제출</t>
+  </si>
+  <si>
+    <t>A179</t>
+  </si>
+  <si>
+    <t>경상도_칠곡군</t>
+  </si>
+  <si>
+    <t>https://www.chilgok.go.kr/portal/saeol/gosi/list.do?mId=0201030000</t>
+  </si>
+  <si>
+    <t>2025년도 칠곡군 소식지 기획 및 제작 용역 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.chungnam.go.kr/cnportal/province/province/list.do?menuNo=500487&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A018</t>
+  </si>
+  <si>
+    <t>부산광역시고시공고</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=2</t>
+  </si>
+  <si>
+    <t>온천5호교 재가설(확장) 공사 신기술특허 공법 선정 기술제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>공지삼산농산물도매시장 시설현대화사업 건축설계공모(제안공모) 공고</t>
+  </si>
+  <si>
+    <t>2025년 신기술 특허 공법 제안서 제출 안내 관련 질의 답변(2025. 1. 13., 2차)</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=1</t>
+  </si>
+  <si>
+    <t>경기지역화폐 공동운영대행사 선정 제안요청서 질의답변 및 정오표</t>
+  </si>
+  <si>
+    <t>2025년 국경일 행사 용역 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>2025년 동두천시 마을공동체 주민제안 공모사업 공고</t>
+  </si>
+  <si>
+    <t>부천시 노인복지기금운용 심의위원회 위원 모집 공고</t>
+  </si>
+  <si>
+    <t>A076</t>
+  </si>
+  <si>
+    <t>강원도_동해시</t>
+  </si>
+  <si>
+    <t>https://www.dh.go.kr/www/selectBbsNttList.do?bbsNo=87&amp;key=478&amp;recordCountPerPage=90</t>
+  </si>
+  <si>
+    <t>동해시 포상금 지급 심의위원회 위원 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A090</t>
+  </si>
+  <si>
+    <t>강원도_홍천군</t>
+  </si>
+  <si>
+    <t>https://www.hongcheon.go.kr/www/selectEminwonList.do?key=278&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>신기술 특허공법(합성형 라멘교) 기술제안서 평가위원(후보자) 공개 모집...</t>
+  </si>
+  <si>
+    <t>A094</t>
+  </si>
+  <si>
+    <t>충청도_청주시</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>정중근린공원 물놀이장 종합 놀이시설 제안 및 제작·설치 입찰 공고(협상에 의한 계약, 긴급)</t>
+  </si>
+  <si>
+    <t>각리근린공원 물놀이장 종합 놀이시설 제안 및 제작설치 입찰 공고(협상에 의한 계약, 긴급)</t>
+  </si>
+  <si>
+    <t>옥천군 예산성과금심의위원회 위원 모집 공고새글</t>
+  </si>
+  <si>
+    <t>https://www.oc.go.kr/www/selectBbsNttList.do?bbsNo=40&amp;key=236&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A104</t>
+  </si>
+  <si>
+    <t>충청도_음성군</t>
+  </si>
+  <si>
+    <t>https://www.eumseong.go.kr/www/selectEminwonList.do?key=80&amp;pageUnit=10&amp;ofr_pageSize=10&amp;amp;not_ancmt_se_code=01,02,03,04,05&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>『생극 능안저수지 (긴급)보수사업』신기술· 특정공법 선정을 위한 기술제안...</t>
+  </si>
+  <si>
+    <t>여수시 재해영향평가 심의위원회 위원 명단 공개 공고새로운글</t>
+  </si>
+  <si>
+    <t>https://www.yeosu.go.kr/www/govt/news/notify?page=2</t>
+  </si>
+  <si>
+    <t>A156</t>
+  </si>
+  <si>
+    <t>전라도_해남군</t>
+  </si>
+  <si>
+    <t>https://www.haenam.go.kr/planweb/board/list.9is?contentUid=18e3368f5d745106015de961fbbd205e&amp;boardUid=18e3368f644b01470164eeb23d7b30f5&amp;contentUid=18e3368f5d745106015de961fbbd205e&amp;recordCountPerPage=100</t>
+  </si>
+  <si>
+    <t>『해남 원도심 특화거리 조성 사업』 제안서 평가위원 후...파일NEW</t>
+  </si>
+  <si>
+    <t>https://www.gyeongju.go.kr/open_content/ko/page.do?mnu_uid=423&amp;pageNo=2</t>
+  </si>
+  <si>
+    <t>A165</t>
+  </si>
+  <si>
+    <t>경상도_영주시</t>
+  </si>
+  <si>
+    <t>https://www.yeongju.go.kr/open_content/main/page.do?mnu_uid=10619&amp;boardType=notice&amp;pageSize=90</t>
+  </si>
+  <si>
+    <t>『2025년 영주인성아카데미 운영 용역』제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>동해 도시계획도로(대3-13) 임곡1교(보완) 실시설계용역 신기술・특허 공법선정을 위한 기술제안서 제출안내 공고</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -338,6 +519,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -368,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -378,6 +563,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1159,54 +1353,966 @@
         <v>45670.529178240744</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F66" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F67" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E70" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E72" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E76" s="7">
+        <v>45670.0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>45670.8894212963</v>
+      </c>
+    </row>
     <row r="77" ht="15.75" customHeight="1"/>
     <row r="78" ht="15.75" customHeight="1"/>
     <row r="79" ht="15.75" customHeight="1"/>
@@ -2132,9 +3238,59 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C29"/>
+    <hyperlink r:id="rId2" ref="C30"/>
+    <hyperlink r:id="rId3" ref="C31"/>
+    <hyperlink r:id="rId4" ref="C32"/>
+    <hyperlink r:id="rId5" ref="C33"/>
+    <hyperlink r:id="rId6" ref="C34"/>
+    <hyperlink r:id="rId7" ref="C35"/>
+    <hyperlink r:id="rId8" ref="C36"/>
+    <hyperlink r:id="rId9" ref="C37"/>
+    <hyperlink r:id="rId10" location="list/1" ref="C38"/>
+    <hyperlink r:id="rId11" location="list/1" ref="C39"/>
+    <hyperlink r:id="rId12" location="list/1" ref="C40"/>
+    <hyperlink r:id="rId13" location="list/1" ref="C41"/>
+    <hyperlink r:id="rId14" ref="C42"/>
+    <hyperlink r:id="rId15" ref="C43"/>
+    <hyperlink r:id="rId16" ref="C44"/>
+    <hyperlink r:id="rId17" ref="C45"/>
+    <hyperlink r:id="rId18" location="page=1" ref="C46"/>
+    <hyperlink r:id="rId19" location="page=1" ref="C47"/>
+    <hyperlink r:id="rId20" ref="C48"/>
+    <hyperlink r:id="rId21" ref="C49"/>
+    <hyperlink r:id="rId22" ref="C50"/>
+    <hyperlink r:id="rId23" ref="C51"/>
+    <hyperlink r:id="rId24" ref="C52"/>
+    <hyperlink r:id="rId25" ref="C53"/>
+    <hyperlink r:id="rId26" ref="C54"/>
+    <hyperlink r:id="rId27" ref="C55"/>
+    <hyperlink r:id="rId28" ref="C56"/>
+    <hyperlink r:id="rId29" ref="C57"/>
+    <hyperlink r:id="rId30" ref="C58"/>
+    <hyperlink r:id="rId31" ref="C59"/>
+    <hyperlink r:id="rId32" ref="C60"/>
+    <hyperlink r:id="rId33" ref="C61"/>
+    <hyperlink r:id="rId34" ref="C62"/>
+    <hyperlink r:id="rId35" ref="C63"/>
+    <hyperlink r:id="rId36" ref="C64"/>
+    <hyperlink r:id="rId37" ref="C65"/>
+    <hyperlink r:id="rId38" ref="C66"/>
+    <hyperlink r:id="rId39" ref="C67"/>
+    <hyperlink r:id="rId40" ref="C68"/>
+    <hyperlink r:id="rId41" ref="C69"/>
+    <hyperlink r:id="rId42" ref="C70"/>
+    <hyperlink r:id="rId43" ref="C71"/>
+    <hyperlink r:id="rId44" ref="C72"/>
+    <hyperlink r:id="rId45" ref="C73"/>
+    <hyperlink r:id="rId46" ref="C74"/>
+    <hyperlink r:id="rId47" ref="C75"/>
+    <hyperlink r:id="rId48" ref="C76"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId49"/>
 </worksheet>
 </file>